--- a/SetList/xlsx/morning.xlsx
+++ b/SetList/xlsx/morning.xlsx
@@ -1,19 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/prog/HPServer/SetList/xlsx/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87A35091-68BA-2F4E-B2FF-B2426517E403}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="38420" yWindow="500" windowWidth="36280" windowHeight="23500" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="22 CONCERT TOUR~Never Been Bett" sheetId="1" r:id="rId4"/>
-    <sheet name="19 秋ツアーセットリストAパターン" sheetId="2" r:id="rId5"/>
-    <sheet name="19 秋ツアーセットリストAパターン-1" sheetId="3" r:id="rId6"/>
+    <sheet name="22 〜Never Been Better! Encore〜" sheetId="4" r:id="rId1"/>
+    <sheet name="22 森戸知沙希卒業コンサート" sheetId="5" r:id="rId2"/>
+    <sheet name="22 〜Never Been Better!〜" sheetId="1" r:id="rId3"/>
+    <sheet name="21 佐藤優樹卒業コンサート" sheetId="6" r:id="rId4"/>
+    <sheet name="19 〜KOKORO &amp; KARADA〜A" sheetId="2" r:id="rId5"/>
+    <sheet name="19 〜KOKORO &amp; KARADA〜B" sheetId="7" r:id="rId6"/>
+    <sheet name="19 〜BEST WISHES！〜A" sheetId="8" r:id="rId7"/>
+    <sheet name="19 〜BEST WISHES！〜B" sheetId="9" r:id="rId8"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="725" uniqueCount="149">
   <si>
     <t>項番</t>
   </si>
@@ -60,161 +74,816 @@
     <t>しょうがない夢追い人</t>
   </si>
   <si>
-    <t>小田さくら・羽賀茜音・横山玲奈・北川莉央</t>
-  </si>
-  <si>
     <t>恋人には絶対に知られたくない真実</t>
   </si>
   <si>
-    <t>譜久村聖・牧野真莉愛・岡村ほまれ</t>
-  </si>
-  <si>
     <t>愛されすぎることはないのよ</t>
   </si>
   <si>
-    <t>生田衣梨奈・石田亜佑美・野中美樹・加賀楓・森戸知沙希・山﨑愛生</t>
+    <t>よしよししてほしいの</t>
+  </si>
+  <si>
+    <t>ジェラシー ジェラシー</t>
+  </si>
+  <si>
+    <t>Are you Happy?</t>
+  </si>
+  <si>
+    <t>TIKI BUN</t>
+  </si>
+  <si>
+    <t>Moonlight night 〜月夜の晩だよ〜</t>
+  </si>
+  <si>
+    <t>ロマンスに目覚める妄想女子の歌</t>
+  </si>
+  <si>
+    <t>What is LOVE？</t>
+  </si>
+  <si>
+    <t>SEXY BOY 〜そよ風に寄り添って〜</t>
+  </si>
+  <si>
+    <t>このまま!</t>
+  </si>
+  <si>
+    <t>大・人生 Never Been Better!</t>
+  </si>
+  <si>
+    <t>KOKORO &amp; KARADA</t>
+  </si>
+  <si>
+    <t>人生Blues</t>
+  </si>
+  <si>
+    <t>負けるきしない 今夜の勝負</t>
+  </si>
+  <si>
+    <t>青春Say A-HA</t>
+  </si>
+  <si>
+    <t>わがまま 気のまま 愛のジョーク</t>
+  </si>
+  <si>
+    <t>MC</t>
+  </si>
+  <si>
+    <t>自由な国だから</t>
+  </si>
+  <si>
+    <t>セクシーキャットの演説</t>
+  </si>
+  <si>
+    <t>抱いてHOLD ON ME!</t>
+  </si>
+  <si>
+    <t>譜久村聖 生田衣梨奈 石田亜佑美 佐藤優樹 小田さくら</t>
+  </si>
+  <si>
+    <t>One and Only</t>
+  </si>
+  <si>
+    <t>野中美希 牧野真莉愛 羽賀朱音</t>
+  </si>
+  <si>
+    <t>Rockの定義</t>
+  </si>
+  <si>
+    <t>加賀楓 横山玲奈 森戸知沙希</t>
+  </si>
+  <si>
+    <t>好きな先輩</t>
+  </si>
+  <si>
+    <t>北川莉央 岡村ほまれ 山﨑愛生</t>
+  </si>
+  <si>
+    <t>雨の降らない星では愛せないだろう？</t>
+  </si>
+  <si>
+    <t>ザ☆ピ～ス！</t>
+  </si>
+  <si>
+    <t>HOW DO YOU LIKEJAPAN？～日本はどんな感じでっか？～</t>
+  </si>
+  <si>
+    <t>メドレー</t>
+  </si>
+  <si>
+    <t>ブレインストーミング</t>
+  </si>
+  <si>
+    <t>女が目立って なぜイケナイ</t>
+  </si>
+  <si>
+    <t>Tokyoという片隅</t>
+  </si>
+  <si>
+    <t>直観２～逃がした魚は大きいぞ！～</t>
+  </si>
+  <si>
+    <t>ドッカ～ン カブリッチオ</t>
+  </si>
+  <si>
+    <t>Are you Happy？</t>
+  </si>
+  <si>
+    <t>I surrender 愛されど愛</t>
+  </si>
+  <si>
+    <t>Hey？ Unfair Bady</t>
+  </si>
+  <si>
+    <t>アンコール</t>
+  </si>
+  <si>
+    <t>青春Night</t>
+  </si>
+  <si>
+    <t>One・Two・Three</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>愛の軍団</t>
+    <rPh sb="0" eb="1">
+      <t>アイノ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Chu Chu Chu 僕らの未来</t>
+    <rPh sb="12" eb="13">
+      <t>ボク</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ミライ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SEXY BOY 〜そよ風に寄り添って〜</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>恋愛Destiny〜本音を論じたい〜</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>信じるしか！</t>
+    <rPh sb="0" eb="1">
+      <t>シンジル</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>生田衣梨奈　石田亜佑美　小田さくら　加賀楓　岡村ほまれ</t>
+    <rPh sb="0" eb="1">
+      <t>イクタ</t>
+    </rPh>
+    <rPh sb="6" eb="11">
+      <t>イシダ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>オダサ</t>
+    </rPh>
+    <rPh sb="18" eb="21">
+      <t>カガカエデ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>オカムラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TIME IS MONEY！</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>野中美希　横山玲奈　山﨑愛生</t>
+    <rPh sb="0" eb="4">
+      <t>ノナカ</t>
+    </rPh>
+    <rPh sb="5" eb="9">
+      <t>ヨコ</t>
+    </rPh>
+    <rPh sb="10" eb="14">
+      <t>ヤマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>二人はアベコベ</t>
+    <rPh sb="0" eb="2">
+      <t>フタリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>譜久村聖　牧野真莉愛　羽賀朱音　北川莉央</t>
+    <rPh sb="0" eb="4">
+      <t>フクムラ</t>
+    </rPh>
+    <rPh sb="5" eb="10">
+      <t>マキノ</t>
+    </rPh>
+    <rPh sb="11" eb="15">
+      <t>ハガ</t>
+    </rPh>
+    <rPh sb="16" eb="20">
+      <t>キタガワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>泣き虫My Dream</t>
+    <rPh sb="0" eb="1">
+      <t>ナキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全員</t>
+    <rPh sb="0" eb="1">
+      <t>ゼンイn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>よしよししてほしいの</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メドレー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ジェラシー ジェラシー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>わがまま気のま愛のジョーク</t>
+    <rPh sb="4" eb="5">
+      <t>キノマ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>アイノ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>このまま！</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大・人生 Never Been Better！</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>小田さくら　羽賀茜音　横山玲奈　北川莉央</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>譜久村聖　牧野真莉愛　岡村ほまれ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>生田衣梨奈　石田亜佑美　野中美樹　加賀楓　森戸知沙希　山﨑愛生</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>I WISH　／　泣き虫My Dream</t>
+    <rPh sb="9" eb="10">
+      <t>ナキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>青春Night</t>
+    <rPh sb="0" eb="2">
+      <t>セイシュn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>笑顔YESヌード</t>
+    <rPh sb="0" eb="2">
+      <t>エガオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>I WISH</t>
-  </si>
-  <si>
-    <t>よしよししてほしいの</t>
-  </si>
-  <si>
-    <t>ジェラシー ジェラシー</t>
-  </si>
-  <si>
-    <t>Are you Happy?</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>恋愛Destiny〜本音を論じたい〜</t>
+    <rPh sb="0" eb="1">
+      <t>レn</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ホンネ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ロn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>みかん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ソロ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>森戸知沙希</t>
+    <rPh sb="0" eb="5">
+      <t>モリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>わがまま　気のまま　愛のジョーク</t>
+    <rPh sb="5" eb="6">
+      <t>キノマ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>アイノ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ENDLESS SKY</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Teenage Solution</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>女子かしまし物語</t>
+    <rPh sb="0" eb="2">
+      <t>ジョセィ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>モノガタリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>I Surrender 愛されど愛</t>
+    <rPh sb="12" eb="13">
+      <t>アイサレ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>アイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ナルシス カマってちゃん協奏曲第５番</t>
+    <rPh sb="12" eb="15">
+      <t>キョウソウキョク</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ダイ5</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>純情エビデンス</t>
+    <rPh sb="0" eb="1">
+      <t>ジュンジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Are you Happy？</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ロマンスに目覚める妄想女子の歌</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>愛してナンが悪い！？</t>
+    <rPh sb="6" eb="7">
+      <t>ワルイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ギューされたいだけなのに</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ビートの惑星</t>
+    <rPh sb="4" eb="6">
+      <t>ワクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>譜久村聖　牧野真莉愛　羽賀朱音　北川莉央</t>
+    <rPh sb="0" eb="4">
+      <t>フクムラ</t>
+    </rPh>
+    <rPh sb="5" eb="10">
+      <t>マキノ</t>
+    </rPh>
+    <rPh sb="11" eb="15">
+      <t>ハガアク</t>
+    </rPh>
+    <rPh sb="16" eb="20">
+      <t>キタガワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>佐藤優樹　野中美希　横山玲奈　山﨑愛生</t>
+    <rPh sb="0" eb="4">
+      <t>サトウ</t>
+    </rPh>
+    <rPh sb="5" eb="9">
+      <t>ノナカ</t>
+    </rPh>
+    <rPh sb="10" eb="14">
+      <t>ヨコ</t>
+    </rPh>
+    <rPh sb="15" eb="19">
+      <t>ヤマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>生田衣梨奈　石田亜佑美　小田さくら　加賀楓　森戸知沙希　岡村ほまれ</t>
+    <rPh sb="0" eb="5">
+      <t>イクタ</t>
+    </rPh>
+    <rPh sb="6" eb="11">
+      <t>イシダ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>オダサ</t>
+    </rPh>
+    <rPh sb="18" eb="21">
+      <t>カガカエデ</t>
+    </rPh>
+    <rPh sb="22" eb="27">
+      <t>モリ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>オカムラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>泡沫サタデーナイト！</t>
+    <rPh sb="0" eb="2">
+      <t>ウタカタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Help me！</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Tokyoという片隅</t>
+    <rPh sb="8" eb="10">
+      <t>カタスミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>君の代わりは居やしない</t>
+    <rPh sb="0" eb="1">
+      <t>キミ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t xml:space="preserve">イナイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>愛の軍団</t>
+    <rPh sb="2" eb="4">
+      <t>グンダn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>恋愛Destiny〜本音を論じたい〜</t>
+    <rPh sb="0" eb="2">
+      <t>レn</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ホンネ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ロn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>What is LOVE？</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>笑顔の君は太陽さ</t>
+    <rPh sb="0" eb="2">
+      <t>エガオ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>タイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>佐藤優樹　→ 全員</t>
+    <rPh sb="0" eb="1">
+      <t>サトウマサキ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ゼンイn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シャボン玉</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>その場面でビビっちゃいけないじゃん！</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>グルグルJUMP</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボン　キュッ！ボン　キュッ！BOMB GIRL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>冷たい風と片思い</t>
+    <rPh sb="0" eb="1">
+      <t>ツメタイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カタオモイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Rockの定義</t>
+    <rPh sb="4" eb="5">
+      <t>ノテイギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>One and Only</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>野中美希　牧野真莉愛　羽賀朱音</t>
+    <rPh sb="0" eb="4">
+      <t>ノナカ</t>
+    </rPh>
+    <rPh sb="5" eb="10">
+      <t>マキノ</t>
+    </rPh>
+    <rPh sb="11" eb="15">
+      <t>ハガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>恋のダンスサイト</t>
+    <rPh sb="0" eb="1">
+      <t>コイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>I surrender 愛されど愛</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リゾナントブルー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>青春小僧が泣いている</t>
+    <rPh sb="0" eb="1">
+      <t>セイシュn</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ナイテ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>なんちゃって恋愛</t>
+    <rPh sb="6" eb="8">
+      <t>レンアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>TIKI BUN</t>
-  </si>
-  <si>
-    <t>Moonlight night 〜月夜の晩だよ〜</t>
-  </si>
-  <si>
-    <t>ロマンスに目覚める妄想女子の歌</t>
-  </si>
-  <si>
-    <t>What is LOVE？</t>
-  </si>
-  <si>
-    <t>SEXY BOY 〜そよ風に寄り添って〜</t>
-  </si>
-  <si>
-    <t>このまま!</t>
-  </si>
-  <si>
-    <t>大・人生 Never Been Better!</t>
-  </si>
-  <si>
-    <t>KOKORO &amp; KARADA</t>
-  </si>
-  <si>
-    <t>人生Blues</t>
-  </si>
-  <si>
-    <t>負けるきしない 今夜の勝負</t>
-  </si>
-  <si>
-    <t>青春Say A-HA</t>
-  </si>
-  <si>
-    <t>わがまま 気のまま 愛のジョーク</t>
-  </si>
-  <si>
-    <t>MC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>気まぐれプリンセス</t>
+    <rPh sb="0" eb="1">
+      <t>キマグレ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>時空を超え　宇宙を超え</t>
+    <rPh sb="0" eb="2">
+      <t>ジク</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>コエ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ウチュウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>コエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スカッとMy Heart</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ジェラシージェラシー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>The Vision</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>セクシーキャットの演説</t>
+    <rPh sb="9" eb="11">
+      <t>エンゼテゥ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全員</t>
+    <rPh sb="0" eb="2">
+      <t>ゼンイn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>泣いちゃうかも</t>
+    <rPh sb="0" eb="1">
+      <t>ナイティア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>私のなんにもわかっちゃない</t>
+    <rPh sb="0" eb="1">
+      <t>ワタセィ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>君さえ居れば何にも要らない</t>
+    <rPh sb="0" eb="1">
+      <t>キミ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t xml:space="preserve">イレバ </t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ナンニモ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t xml:space="preserve">イラナイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>恋愛ハンター</t>
+    <rPh sb="0" eb="2">
+      <t>レn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A gonna</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Oh my wish！</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Password is ０</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>人生blues</t>
+    <rPh sb="0" eb="2">
+      <t>ジンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アンコール</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>自由な国だから</t>
-  </si>
-  <si>
-    <t>セクシーキャットの演説</t>
-  </si>
-  <si>
-    <t>抱いてHOLD ON ME!</t>
-  </si>
-  <si>
-    <t>譜久村聖 生田衣梨奈 石田亜佑美 佐藤優樹 小田さくら</t>
-  </si>
-  <si>
-    <t>One and Only</t>
-  </si>
-  <si>
-    <t>野中美希 牧野真莉愛 羽賀朱音</t>
-  </si>
-  <si>
-    <t>Rockの定義</t>
-  </si>
-  <si>
-    <t>加賀楓 横山玲奈 森戸知沙希</t>
-  </si>
-  <si>
-    <t>好きな先輩</t>
-  </si>
-  <si>
-    <t>北川莉央 岡村ほまれ 山﨑愛生</t>
-  </si>
-  <si>
-    <t>雨の降らない星では愛せないだろう？</t>
-  </si>
-  <si>
-    <t>ザ☆ピ～ス！</t>
-  </si>
-  <si>
-    <t>HOW DO YOU LIKEJAPAN？～日本はどんな感じでっか？～</t>
-  </si>
-  <si>
-    <t>メドレー</t>
-  </si>
-  <si>
-    <t>ブレインストーミング</t>
-  </si>
-  <si>
-    <t>女が目立って なぜイケナイ</t>
-  </si>
-  <si>
-    <t>Tokyoという片隅</t>
-  </si>
-  <si>
-    <t>直観２～逃がした魚は大きいぞ！～</t>
-  </si>
-  <si>
-    <t>ドッカ～ン カブリッチオ</t>
-  </si>
-  <si>
-    <t>Are you Happy？</t>
-  </si>
-  <si>
-    <t>I surrender 愛されど愛</t>
-  </si>
-  <si>
-    <t>Hey？ Unfair Bady</t>
-  </si>
-  <si>
-    <t>アンコール</t>
-  </si>
-  <si>
-    <t>青春Night</t>
+    <rPh sb="0" eb="2">
+      <t>ジユウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>クニ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>The 摩天楼ショー</t>
+    <rPh sb="4" eb="7">
+      <t>マテ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>この地球の平和を本気で願ってるんだよ！</t>
+    <rPh sb="5" eb="7">
+      <t>ヘイワ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ホn</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ネガッテ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>まじですかスカ！</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>恋してみたくて</t>
+    <rPh sb="0" eb="1">
+      <t>コイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>The Vision</t>
+    <rPh sb="0" eb="3">
+      <t>The Vision</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="MS PGothic"/>
     </font>
     <font>
-      <sz val="14"/>
+      <sz val="6"/>
+      <name val="Noto Sans JP Black"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="8"/>
       <name val="MS PGothic"/>
+      <family val="2"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="3">
@@ -231,7 +900,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -254,57 +923,194 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+  <cellXfs count="14">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -506,7 +1312,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -525,7 +1331,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -555,7 +1361,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -581,7 +1387,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -607,7 +1413,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -633,7 +1439,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -659,7 +1465,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -685,7 +1491,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -711,7 +1517,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -737,7 +1543,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -763,7 +1569,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -776,9 +1582,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -795,7 +1607,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -814,7 +1626,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -840,7 +1652,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -866,7 +1678,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -892,7 +1704,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -918,7 +1730,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -944,7 +1756,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -970,7 +1782,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -996,7 +1808,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1022,7 +1834,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1048,7 +1860,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1061,9 +1873,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1077,7 +1895,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1096,7 +1914,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1126,7 +1944,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1152,7 +1970,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1178,7 +1996,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1204,7 +2022,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1230,7 +2048,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1256,7 +2074,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1282,7 +2100,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1308,7 +2126,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1334,7 +2152,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1347,356 +2165,353 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB14DD7E-9C74-1B49-821D-40299A02F74E}">
+  <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6667" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="8.85156" style="1" customWidth="1"/>
-    <col min="2" max="2" width="53.8516" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.85156" style="1" customWidth="1"/>
-    <col min="4" max="4" width="57.6719" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="12.6719" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="53.83203125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="8.83203125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="57.6640625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="5" customWidth="1"/>
+    <col min="6" max="16384" width="12.6640625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" ht="15.75" customHeight="1">
+    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" t="s" s="2">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s" s="2">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" ht="15.75" customHeight="1">
+      <c r="B2" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" t="s" s="2">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s" s="2">
-        <v>5</v>
-      </c>
-      <c r="D3" t="s" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" ht="15.75" customHeight="1">
+      <c r="B3" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" t="s" s="2">
+      <c r="B4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C4" t="s" s="2">
-        <v>5</v>
-      </c>
-      <c r="D4" t="s" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" ht="15.75" customHeight="1">
+      <c r="C4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" t="s" s="2">
-        <v>9</v>
-      </c>
-      <c r="C5" t="s" s="2">
-        <v>5</v>
-      </c>
-      <c r="D5" t="s" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" ht="15.75" customHeight="1">
+      <c r="B5" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" t="s" s="2">
+      <c r="B6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C6" t="s" s="2">
-        <v>5</v>
-      </c>
-      <c r="D6" t="s" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" ht="15.75" customHeight="1">
+      <c r="C6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="C7" t="s" s="2">
-        <v>5</v>
-      </c>
-      <c r="D7" t="s" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" ht="15.75" customHeight="1">
+      <c r="B7" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" t="s" s="2">
-        <v>12</v>
-      </c>
-      <c r="C8" t="s" s="2">
-        <v>5</v>
-      </c>
-      <c r="D8" t="s" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" ht="15.75" customHeight="1">
+      <c r="B8" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="B9" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="C9" t="s" s="2">
-        <v>5</v>
-      </c>
-      <c r="D9" t="s" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" ht="15.75" customHeight="1">
+      <c r="B9" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="B10" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="C10" t="s" s="2">
-        <v>5</v>
-      </c>
-      <c r="D10" t="s" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" ht="15.75" customHeight="1">
+      <c r="B10" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="B11" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="C11" t="s" s="2">
-        <v>5</v>
-      </c>
-      <c r="D11" t="s" s="2">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" ht="15.75" customHeight="1">
+      <c r="B11" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
         <v>11</v>
       </c>
-      <c r="B12" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="C12" t="s" s="2">
-        <v>5</v>
-      </c>
-      <c r="D12" t="s" s="2">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" ht="15.75" customHeight="1">
+      <c r="B12" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="3">
         <v>12</v>
       </c>
-      <c r="B13" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="C13" t="s" s="2">
-        <v>5</v>
-      </c>
-      <c r="D13" t="s" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" ht="15.75" customHeight="1">
+      <c r="B13" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
         <v>13</v>
       </c>
-      <c r="B14" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="C14" t="s" s="2">
-        <v>5</v>
-      </c>
-      <c r="D14" t="s" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" ht="15.75" customHeight="1">
+      <c r="B14" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="3">
         <v>14</v>
       </c>
-      <c r="B15" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="C15" t="s" s="2">
-        <v>5</v>
-      </c>
-      <c r="D15" t="s" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" ht="15.75" customHeight="1">
+      <c r="B15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="3">
         <v>15</v>
       </c>
-      <c r="B16" t="s" s="2">
-        <v>23</v>
-      </c>
-      <c r="C16" t="s" s="2">
-        <v>5</v>
-      </c>
-      <c r="D16" t="s" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" ht="15.75" customHeight="1">
+      <c r="B16" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="3">
         <v>16</v>
       </c>
-      <c r="B17" t="s" s="2">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s" s="2">
-        <v>5</v>
-      </c>
-      <c r="D17" t="s" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" ht="15.75" customHeight="1">
+      <c r="B17" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="3">
         <v>17</v>
       </c>
-      <c r="B18" t="s" s="2">
-        <v>25</v>
-      </c>
-      <c r="C18" t="s" s="2">
-        <v>5</v>
-      </c>
-      <c r="D18" t="s" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" ht="15.75" customHeight="1">
+      <c r="B18" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="3">
         <v>18</v>
       </c>
-      <c r="B19" t="s" s="2">
-        <v>26</v>
-      </c>
-      <c r="C19" t="s" s="2">
-        <v>5</v>
-      </c>
-      <c r="D19" t="s" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" ht="15.75" customHeight="1">
+      <c r="B19" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="3">
         <v>19</v>
       </c>
-      <c r="B20" t="s" s="2">
-        <v>27</v>
-      </c>
-      <c r="C20" t="s" s="2">
-        <v>5</v>
-      </c>
-      <c r="D20" t="s" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" ht="15.75" customHeight="1">
+      <c r="B20" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="3">
         <v>20</v>
       </c>
-      <c r="B21" t="s" s="2">
-        <v>28</v>
-      </c>
-      <c r="C21" t="s" s="2">
-        <v>5</v>
-      </c>
-      <c r="D21" t="s" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" ht="15.75" customHeight="1">
+      <c r="B21" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="3">
         <v>21</v>
       </c>
-      <c r="B22" t="s" s="2">
-        <v>29</v>
-      </c>
-      <c r="C22" t="s" s="2">
-        <v>5</v>
-      </c>
-      <c r="D22" t="s" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="3">
-        <v>22</v>
-      </c>
-      <c r="B23" t="s" s="2">
-        <v>30</v>
-      </c>
-      <c r="C23" t="s" s="2">
-        <v>5</v>
-      </c>
-      <c r="D23" t="s" s="2">
+      <c r="B22" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>6</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"MS PGothic,Regular"&amp;11&amp;K000000000000&amp;P</oddFooter>
   </headerFooter>
@@ -1704,485 +2519,419 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D4FF176-C444-A54C-ABC5-2618322167C6}">
+  <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6667" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="8.85156" style="4" customWidth="1"/>
-    <col min="2" max="2" width="53.8516" style="4" customWidth="1"/>
-    <col min="3" max="3" width="8.85156" style="4" customWidth="1"/>
-    <col min="4" max="4" width="49.5" style="4" customWidth="1"/>
-    <col min="5" max="16384" width="12.6719" style="4" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="53.83203125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="8.83203125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="57.6640625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="5" customWidth="1"/>
+    <col min="6" max="16384" width="12.6640625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" ht="15.75" customHeight="1">
+    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="C2" t="s" s="2">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" ht="15.75" customHeight="1">
+      <c r="B2" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="C3" t="s" s="2">
-        <v>5</v>
-      </c>
-      <c r="D3" t="s" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" ht="15.75" customHeight="1">
+      <c r="B3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" t="s" s="2">
-        <v>33</v>
-      </c>
-      <c r="C4" t="s" s="2">
-        <v>5</v>
-      </c>
-      <c r="D4" t="s" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" ht="15.75" customHeight="1">
+      <c r="B4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" t="s" s="2">
-        <v>34</v>
-      </c>
-      <c r="C5" t="s" s="2">
-        <v>5</v>
-      </c>
-      <c r="D5" t="s" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" ht="15.75" customHeight="1">
+      <c r="B5" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="C6" t="s" s="2">
-        <v>5</v>
-      </c>
-      <c r="D6" t="s" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" ht="15.75" customHeight="1">
+      <c r="B6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="C7" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D7" t="s" s="2">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" ht="15.75" customHeight="1">
+      <c r="B7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s" s="2">
-        <v>5</v>
-      </c>
-      <c r="D8" t="s" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" ht="15.75" customHeight="1">
+      <c r="B8" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="B9" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="C9" t="s" s="2">
-        <v>5</v>
-      </c>
-      <c r="D9" t="s" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" ht="15.75" customHeight="1">
+      <c r="B9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="B10" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="C10" t="s" s="2">
-        <v>5</v>
-      </c>
-      <c r="D10" t="s" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" ht="15.75" customHeight="1">
+      <c r="B10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="B11" t="s" s="2">
-        <v>26</v>
-      </c>
-      <c r="C11" t="s" s="2">
-        <v>5</v>
-      </c>
-      <c r="D11" t="s" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" ht="15.75" customHeight="1">
+      <c r="B11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
         <v>11</v>
       </c>
-      <c r="B12" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="C12" t="s" s="2">
-        <v>5</v>
-      </c>
-      <c r="D12" t="s" s="2">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" ht="15.75" customHeight="1">
+      <c r="B12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="3">
         <v>12</v>
       </c>
-      <c r="B13" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="C13" t="s" s="2">
-        <v>5</v>
-      </c>
-      <c r="D13" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" ht="15.75" customHeight="1">
+      <c r="B13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
         <v>13</v>
       </c>
-      <c r="B14" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="C14" t="s" s="2">
-        <v>5</v>
-      </c>
-      <c r="D14" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="15" ht="15.75" customHeight="1">
+      <c r="B14" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="3">
         <v>14</v>
       </c>
-      <c r="B15" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="C15" t="s" s="2">
-        <v>5</v>
-      </c>
-      <c r="D15" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="16" ht="15.75" customHeight="1">
+      <c r="B15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="3">
         <v>15</v>
       </c>
-      <c r="B16" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="C16" t="s" s="2">
-        <v>5</v>
-      </c>
-      <c r="D16" t="s" s="2">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="17" ht="15.75" customHeight="1">
+      <c r="B16" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="3">
         <v>16</v>
       </c>
-      <c r="B17" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="C17" t="s" s="2">
-        <v>5</v>
-      </c>
-      <c r="D17" t="s" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" ht="15.75" customHeight="1">
+      <c r="B17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="3">
         <v>17</v>
       </c>
-      <c r="B18" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="C18" t="s" s="2">
-        <v>5</v>
-      </c>
-      <c r="D18" t="s" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" ht="15.75" customHeight="1">
+      <c r="B18" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="3">
         <v>18</v>
       </c>
-      <c r="B19" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="C19" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D19" t="s" s="2">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="20" ht="15.75" customHeight="1">
+      <c r="B19" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="3">
         <v>19</v>
       </c>
-      <c r="B20" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="C20" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="D20" t="s" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" ht="15.75" customHeight="1">
+      <c r="B20" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="3">
         <v>20</v>
       </c>
-      <c r="B21" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="C21" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="D21" t="s" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" ht="15.75" customHeight="1">
+      <c r="B21" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="3">
         <v>21</v>
       </c>
-      <c r="B22" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="C22" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="D22" t="s" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" ht="15.75" customHeight="1">
+      <c r="B22" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="3">
         <v>22</v>
       </c>
-      <c r="B23" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="C23" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="D23" t="s" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" ht="15.75" customHeight="1">
+      <c r="B23" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="3">
         <v>23</v>
       </c>
-      <c r="B24" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="C24" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="D24" t="s" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="3">
+      <c r="B24" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="7">
         <v>24</v>
       </c>
-      <c r="B25" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="C25" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="D25" t="s" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="3">
+      <c r="B25" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="9">
         <v>25</v>
       </c>
-      <c r="B26" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="C26" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D26" t="s" s="2">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="3">
+      <c r="B26" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="9">
         <v>26</v>
       </c>
-      <c r="B27" t="s" s="2">
-        <v>7</v>
-      </c>
-      <c r="C27" t="s" s="2">
-        <v>5</v>
-      </c>
-      <c r="D27" t="s" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="3">
+      <c r="B27" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="9">
         <v>27</v>
       </c>
-      <c r="B28" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="C28" t="s" s="2">
-        <v>5</v>
-      </c>
-      <c r="D28" t="s" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="3">
-        <v>28</v>
-      </c>
-      <c r="B29" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="C29" t="s" s="2">
-        <v>5</v>
-      </c>
-      <c r="D29" t="s" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="3">
-        <v>29</v>
-      </c>
-      <c r="B30" t="s" s="2">
-        <v>27</v>
-      </c>
-      <c r="C30" t="s" s="2">
-        <v>5</v>
-      </c>
-      <c r="D30" t="s" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="3">
-        <v>30</v>
-      </c>
-      <c r="B31" t="s" s="2">
-        <v>58</v>
-      </c>
-      <c r="C31" t="s" s="2">
-        <v>59</v>
-      </c>
-      <c r="D31" t="s" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="3">
-        <v>31</v>
-      </c>
-      <c r="B32" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="C32" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D32" t="s" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="3">
-        <v>32</v>
-      </c>
-      <c r="B33" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="C33" t="s" s="2">
-        <v>59</v>
-      </c>
-      <c r="D33" t="s" s="2">
-        <v>6</v>
+      <c r="B28" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"MS PGothic,Regular"&amp;11&amp;K000000000000&amp;P</oddFooter>
   </headerFooter>
@@ -2190,485 +2939,2813 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D23"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C61" sqref="C61"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="8.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="53.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.83203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="57.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="12.6640625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="3">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="3">
+        <v>12</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="3">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="3">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="3">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="3">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="3">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="3">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="3">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="3">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="3">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="3">
+        <v>22</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup orientation="portrait"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"MS PGothic,Regular"&amp;11&amp;K000000000000&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F6E2332-27BF-3D41-B643-53EFBA36AF7B}">
+  <dimension ref="A1:D34"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="8.83203125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="53.83203125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="8.83203125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="57.6640625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="5" customWidth="1"/>
+    <col min="6" max="16384" width="12.6640625" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="3">
+        <v>11</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="3">
+        <v>12</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="3">
+        <v>13</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="3">
+        <v>14</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="3">
+        <v>15</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="3">
+        <v>16</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="3">
+        <v>17</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="3">
+        <v>18</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="3">
+        <v>19</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="3">
+        <v>20</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="3">
+        <v>21</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="3">
+        <v>22</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="3">
+        <v>23</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="7">
+        <v>24</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="9">
+        <v>25</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="7">
+        <v>26</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="9">
+        <v>27</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="12">
+        <v>28</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="13">
+        <v>29</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="12">
+        <v>30</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="13">
+        <v>31</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="12">
+        <v>32</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="13">
+        <v>33</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>112</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup orientation="portrait"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"MS PGothic,Regular"&amp;11&amp;K000000000000&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6667" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="8.85156" style="5" customWidth="1"/>
-    <col min="2" max="2" width="53.8516" style="5" customWidth="1"/>
-    <col min="3" max="3" width="8.85156" style="5" customWidth="1"/>
-    <col min="4" max="4" width="49.5" style="5" customWidth="1"/>
-    <col min="5" max="16384" width="12.6719" style="5" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="53.83203125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="8.83203125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="49.5" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="4" customWidth="1"/>
+    <col min="6" max="16384" width="12.6640625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" ht="15.75" customHeight="1">
+    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="C2" t="s" s="2">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" ht="15.75" customHeight="1">
+      <c r="B2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="C3" t="s" s="2">
-        <v>5</v>
-      </c>
-      <c r="D3" t="s" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" ht="15.75" customHeight="1">
+      <c r="B3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" t="s" s="2">
-        <v>33</v>
-      </c>
-      <c r="C4" t="s" s="2">
-        <v>5</v>
-      </c>
-      <c r="D4" t="s" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" ht="15.75" customHeight="1">
+      <c r="B4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" t="s" s="2">
-        <v>34</v>
-      </c>
-      <c r="C5" t="s" s="2">
-        <v>5</v>
-      </c>
-      <c r="D5" t="s" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" ht="15.75" customHeight="1">
+      <c r="B5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="C6" t="s" s="2">
-        <v>5</v>
-      </c>
-      <c r="D6" t="s" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" ht="15.75" customHeight="1">
+      <c r="B6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="C7" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D7" t="s" s="2">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" ht="15.75" customHeight="1">
+      <c r="B7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s" s="2">
-        <v>5</v>
-      </c>
-      <c r="D8" t="s" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" ht="15.75" customHeight="1">
+      <c r="B8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="B9" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="C9" t="s" s="2">
-        <v>5</v>
-      </c>
-      <c r="D9" t="s" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" ht="15.75" customHeight="1">
+      <c r="B9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="B10" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="C10" t="s" s="2">
-        <v>5</v>
-      </c>
-      <c r="D10" t="s" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" ht="15.75" customHeight="1">
+      <c r="B10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="B11" t="s" s="2">
-        <v>26</v>
-      </c>
-      <c r="C11" t="s" s="2">
-        <v>5</v>
-      </c>
-      <c r="D11" t="s" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" ht="15.75" customHeight="1">
+      <c r="B11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
         <v>11</v>
       </c>
-      <c r="B12" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="C12" t="s" s="2">
-        <v>5</v>
-      </c>
-      <c r="D12" t="s" s="2">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" ht="15.75" customHeight="1">
+      <c r="B12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="3">
         <v>12</v>
       </c>
-      <c r="B13" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="C13" t="s" s="2">
-        <v>5</v>
-      </c>
-      <c r="D13" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" ht="15.75" customHeight="1">
+      <c r="B13" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
         <v>13</v>
       </c>
-      <c r="B14" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="C14" t="s" s="2">
-        <v>5</v>
-      </c>
-      <c r="D14" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="15" ht="15.75" customHeight="1">
+      <c r="B14" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="3">
         <v>14</v>
       </c>
-      <c r="B15" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="C15" t="s" s="2">
-        <v>5</v>
-      </c>
-      <c r="D15" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="16" ht="15.75" customHeight="1">
+      <c r="B15" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="3">
         <v>15</v>
       </c>
-      <c r="B16" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="C16" t="s" s="2">
-        <v>5</v>
-      </c>
-      <c r="D16" t="s" s="2">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="17" ht="15.75" customHeight="1">
+      <c r="B16" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="3">
         <v>16</v>
       </c>
-      <c r="B17" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="C17" t="s" s="2">
-        <v>5</v>
-      </c>
-      <c r="D17" t="s" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" ht="15.75" customHeight="1">
+      <c r="B17" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="3">
         <v>17</v>
       </c>
-      <c r="B18" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="C18" t="s" s="2">
-        <v>5</v>
-      </c>
-      <c r="D18" t="s" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" ht="15.75" customHeight="1">
+      <c r="B18" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="3">
         <v>18</v>
       </c>
-      <c r="B19" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="C19" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D19" t="s" s="2">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="20" ht="15.75" customHeight="1">
+      <c r="B19" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="3">
         <v>19</v>
       </c>
-      <c r="B20" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="C20" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="D20" t="s" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" ht="15.75" customHeight="1">
+      <c r="B20" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="3">
         <v>20</v>
       </c>
-      <c r="B21" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="C21" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="D21" t="s" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" ht="15.75" customHeight="1">
+      <c r="B21" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="3">
         <v>21</v>
       </c>
-      <c r="B22" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="C22" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="D22" t="s" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" ht="15.75" customHeight="1">
+      <c r="B22" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="3">
         <v>22</v>
       </c>
-      <c r="B23" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="C23" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="D23" t="s" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" ht="15.75" customHeight="1">
+      <c r="B23" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="3">
         <v>23</v>
       </c>
-      <c r="B24" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="C24" t="s" s="2">
+      <c r="B24" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D24" t="s" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25" ht="15.75" customHeight="1">
+      <c r="C24" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="3">
         <v>24</v>
       </c>
-      <c r="B25" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="C25" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="D25" t="s" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" ht="15.75" customHeight="1">
+      <c r="B25" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="3">
         <v>25</v>
       </c>
-      <c r="B26" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="C26" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D26" t="s" s="2">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="27" ht="15.75" customHeight="1">
+      <c r="B26" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="3">
         <v>26</v>
       </c>
-      <c r="B27" t="s" s="2">
+      <c r="B27" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C27" t="s" s="2">
-        <v>5</v>
-      </c>
-      <c r="D27" t="s" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28" ht="15.75" customHeight="1">
+      <c r="C27" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="3">
         <v>27</v>
       </c>
-      <c r="B28" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="C28" t="s" s="2">
-        <v>5</v>
-      </c>
-      <c r="D28" t="s" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="29" ht="15.75" customHeight="1">
+      <c r="B28" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="3">
         <v>28</v>
       </c>
-      <c r="B29" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="C29" t="s" s="2">
-        <v>5</v>
-      </c>
-      <c r="D29" t="s" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="30" ht="15.75" customHeight="1">
+      <c r="B29" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="3">
         <v>29</v>
       </c>
-      <c r="B30" t="s" s="2">
-        <v>27</v>
-      </c>
-      <c r="C30" t="s" s="2">
-        <v>5</v>
-      </c>
-      <c r="D30" t="s" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="31" ht="15.75" customHeight="1">
+      <c r="B30" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="3">
         <v>30</v>
       </c>
-      <c r="B31" t="s" s="2">
-        <v>58</v>
-      </c>
-      <c r="C31" t="s" s="2">
-        <v>59</v>
-      </c>
-      <c r="D31" t="s" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="32" ht="15.75" customHeight="1">
+      <c r="B31" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="3">
         <v>31</v>
       </c>
-      <c r="B32" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="C32" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D32" t="s" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="33" ht="15.75" customHeight="1">
+      <c r="B32" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="3">
         <v>32</v>
       </c>
-      <c r="B33" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="C33" t="s" s="2">
-        <v>59</v>
-      </c>
-      <c r="D33" t="s" s="2">
+      <c r="B33" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D33" s="2" t="s">
         <v>6</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"MS PGothic,Regular"&amp;11&amp;K000000000000&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27C9720E-4F1D-B649-A6BC-EC4271C7DABD}">
+  <dimension ref="A1:D33"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="8.83203125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="53.83203125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="8.83203125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="49.5" style="5" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="5" customWidth="1"/>
+    <col min="6" max="16384" width="12.6640625" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="3">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="3">
+        <v>12</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="3">
+        <v>13</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="3">
+        <v>14</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="3">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="3">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="3">
+        <v>17</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="3">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="3">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="3">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="3">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="3">
+        <v>22</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="3">
+        <v>23</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="3">
+        <v>24</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="3">
+        <v>25</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="3">
+        <v>26</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="3">
+        <v>27</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="3">
+        <v>28</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="3">
+        <v>29</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="3">
+        <v>30</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="3">
+        <v>31</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="3">
+        <v>32</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup orientation="portrait"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"MS PGothic,Regular"&amp;11&amp;K000000000000&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C371703F-4453-8644-AA85-C1C6D0A5AD13}">
+  <dimension ref="A1:D33"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="8.83203125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="53.83203125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="8.83203125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="49.5" style="5" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="5" customWidth="1"/>
+    <col min="6" max="16384" width="12.6640625" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="3">
+        <v>11</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="3">
+        <v>12</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="3">
+        <v>13</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="3">
+        <v>14</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="3">
+        <v>15</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="3">
+        <v>16</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="3">
+        <v>17</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="3">
+        <v>18</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="3">
+        <v>19</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="3">
+        <v>20</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="3">
+        <v>21</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="3">
+        <v>22</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="3">
+        <v>23</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="3">
+        <v>24</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="3">
+        <v>25</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="3">
+        <v>26</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="3">
+        <v>27</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="3">
+        <v>28</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="3">
+        <v>29</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="3">
+        <v>30</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="3">
+        <v>31</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="3">
+        <v>32</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup orientation="portrait"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"MS PGothic,Regular"&amp;11&amp;K000000000000&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38267819-950F-7B4C-9F75-D8722B96C32A}">
+  <dimension ref="A1:D33"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:A33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="8.83203125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="53.83203125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="8.83203125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="49.5" style="5" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="5" customWidth="1"/>
+    <col min="6" max="16384" width="12.6640625" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="3">
+        <v>11</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="3">
+        <v>12</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="3">
+        <v>13</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="3">
+        <v>14</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="3">
+        <v>15</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="3">
+        <v>16</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="3">
+        <v>17</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="3">
+        <v>18</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="3">
+        <v>19</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="3">
+        <v>20</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="3">
+        <v>21</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="3">
+        <v>22</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="3">
+        <v>23</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="3">
+        <v>24</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="3">
+        <v>25</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="3">
+        <v>26</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="3">
+        <v>27</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="3">
+        <v>28</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="3">
+        <v>29</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="3">
+        <v>30</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="3">
+        <v>31</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="3">
+        <v>32</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"MS PGothic,Regular"&amp;11&amp;K000000000000&amp;P</oddFooter>
   </headerFooter>

--- a/SetList/xlsx/morning.xlsx
+++ b/SetList/xlsx/morning.xlsx
@@ -1,33 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/prog/HPServer/SetList/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87A35091-68BA-2F4E-B2FF-B2426517E403}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7878405F-B000-8948-9F22-35FC06EEEAB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38420" yWindow="500" windowWidth="36280" windowHeight="23500" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38420" yWindow="500" windowWidth="36280" windowHeight="23500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="22 〜Never Been Better! Encore〜" sheetId="4" r:id="rId1"/>
-    <sheet name="22 森戸知沙希卒業コンサート" sheetId="5" r:id="rId2"/>
-    <sheet name="22 〜Never Been Better!〜" sheetId="1" r:id="rId3"/>
-    <sheet name="21 佐藤優樹卒業コンサート" sheetId="6" r:id="rId4"/>
-    <sheet name="19 〜KOKORO &amp; KARADA〜A" sheetId="2" r:id="rId5"/>
-    <sheet name="19 〜KOKORO &amp; KARADA〜B" sheetId="7" r:id="rId6"/>
-    <sheet name="19 〜BEST WISHES！〜A" sheetId="8" r:id="rId7"/>
-    <sheet name="19 〜BEST WISHES！〜B" sheetId="9" r:id="rId8"/>
+    <sheet name="22 ～SINGIN' TO THE BEAT～" sheetId="10" r:id="rId1"/>
+    <sheet name="22 〜Never Been Better! Encore〜" sheetId="4" r:id="rId2"/>
+    <sheet name="22 森戸知沙希卒業コンサート" sheetId="5" r:id="rId3"/>
+    <sheet name="22 〜Never Been Better!〜" sheetId="1" r:id="rId4"/>
+    <sheet name="21 佐藤優樹卒業コンサート" sheetId="6" r:id="rId5"/>
+    <sheet name="19 〜KOKORO &amp; KARADA〜A" sheetId="2" r:id="rId6"/>
+    <sheet name="19 〜KOKORO &amp; KARADA〜B" sheetId="7" r:id="rId7"/>
+    <sheet name="19 〜BEST WISHES！〜A" sheetId="8" r:id="rId8"/>
+    <sheet name="19 〜BEST WISHES！〜B" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="725" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="801" uniqueCount="172">
   <si>
     <t>項番</t>
   </si>
@@ -858,6 +859,194 @@
     <t>The Vision</t>
     <rPh sb="0" eb="3">
       <t>The Vision</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>そうだ！We're ALIVE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>恋愛レボリューション２１</t>
+    <rPh sb="0" eb="1">
+      <t>レn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ムキダシで向き合って</t>
+    <rPh sb="5" eb="6">
+      <t>ムキアッテ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自由な国だから</t>
+    <rPh sb="0" eb="2">
+      <t>ジユウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ピョコピョコウルトラ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>青春小僧が泣いている</t>
+    <rPh sb="0" eb="4">
+      <t>セイシュn</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ナイテ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BRAND NEW MORNING</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>KOKORO ＆　KARADA</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>私がいて君がいる</t>
+    <rPh sb="0" eb="1">
+      <t>ワタセィ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>キミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>抽選</t>
+    <rPh sb="0" eb="2">
+      <t>チュウセn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>忘れらんない</t>
+    <rPh sb="0" eb="1">
+      <t>ワスレ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>小田さくら　横山玲奈</t>
+    <rPh sb="0" eb="2">
+      <t>オダサ</t>
+    </rPh>
+    <rPh sb="6" eb="10">
+      <t>ヨコイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Take off is now！</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>石田亜佑美　加賀楓　岡村ほまれ</t>
+    <rPh sb="0" eb="5">
+      <t>イシダ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>カガカエデ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>オカムラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>愛して　愛して　後１分</t>
+    <rPh sb="0" eb="1">
+      <t>アイセィ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>アイセィ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>アトイップn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>譜久村聖　生田衣梨奈　野中美希　山﨑愛生　櫻井莉緒</t>
+    <rPh sb="0" eb="4">
+      <t>フクムラ</t>
+    </rPh>
+    <rPh sb="5" eb="10">
+      <t>イクタ</t>
+    </rPh>
+    <rPh sb="11" eb="15">
+      <t>ノナカ</t>
+    </rPh>
+    <rPh sb="16" eb="20">
+      <t>ヤマザキ</t>
+    </rPh>
+    <rPh sb="21" eb="25">
+      <t>サクラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大きい瞳</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>牧野真莉愛　羽賀朱音　北川莉央</t>
+    <rPh sb="0" eb="5">
+      <t>マキノ</t>
+    </rPh>
+    <rPh sb="6" eb="10">
+      <t>ハガ</t>
+    </rPh>
+    <rPh sb="11" eb="15">
+      <t>キタガワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ナルシス　カマってちゃん協奏曲第５番</t>
+    <rPh sb="12" eb="15">
+      <t>キョウソウキョク</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t xml:space="preserve">ダイ </t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t xml:space="preserve">バン </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>青春Say A-HA</t>
+    <rPh sb="0" eb="1">
+      <t>セイシュn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ドッカ〜ン　カプリッチオ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>わがまま　気のまま　愛のジョーク</t>
+    <rPh sb="5" eb="6">
+      <t>キノマ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>アイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>歩いてる</t>
+    <rPh sb="0" eb="1">
+      <t>アルイテ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2183,6 +2372,384 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{210B0464-FA2F-144E-8697-BD526A8EBFCC}">
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="8.83203125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="53.83203125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="8.83203125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="57.6640625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="5" customWidth="1"/>
+    <col min="6" max="16384" width="12.6640625" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="3">
+        <v>11</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="3">
+        <v>12</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="3">
+        <v>13</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="3">
+        <v>14</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="3">
+        <v>15</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="3">
+        <v>16</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="3">
+        <v>17</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="3">
+        <v>18</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="3">
+        <v>19</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="3">
+        <v>20</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="3">
+        <v>21</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="3">
+        <v>22</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="3">
+        <v>23</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="3">
+        <v>24</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup orientation="portrait"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"MS PGothic,Regular"&amp;11&amp;K000000000000&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB14DD7E-9C74-1B49-821D-40299A02F74E}">
   <dimension ref="A1:D22"/>
   <sheetViews>
@@ -2518,7 +3085,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D4FF176-C444-A54C-ABC5-2618322167C6}">
   <dimension ref="A1:D28"/>
   <sheetViews>
@@ -2938,7 +3505,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D23"/>
   <sheetViews>
@@ -3288,7 +3855,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F6E2332-27BF-3D41-B643-53EFBA36AF7B}">
   <dimension ref="A1:D34"/>
   <sheetViews>
@@ -3792,7 +4359,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D33"/>
   <sheetViews>
@@ -4282,7 +4849,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27C9720E-4F1D-B649-A6BC-EC4271C7DABD}">
   <dimension ref="A1:D33"/>
   <sheetViews>
@@ -4772,7 +5339,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C371703F-4453-8644-AA85-C1C6D0A5AD13}">
   <dimension ref="A1:D33"/>
   <sheetViews>
@@ -5262,12 +5829,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38267819-950F-7B4C-9F75-D8722B96C32A}">
   <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:A33"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/SetList/xlsx/morning.xlsx
+++ b/SetList/xlsx/morning.xlsx
@@ -1,34 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/prog/HPServer/SetList/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7878405F-B000-8948-9F22-35FC06EEEAB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{809CB71C-AEEF-5F4A-A033-99BDBFC98607}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38420" yWindow="500" windowWidth="36280" windowHeight="23500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="22 ～SINGIN' TO THE BEAT～" sheetId="10" r:id="rId1"/>
-    <sheet name="22 〜Never Been Better! Encore〜" sheetId="4" r:id="rId2"/>
-    <sheet name="22 森戸知沙希卒業コンサート" sheetId="5" r:id="rId3"/>
-    <sheet name="22 〜Never Been Better!〜" sheetId="1" r:id="rId4"/>
-    <sheet name="21 佐藤優樹卒業コンサート" sheetId="6" r:id="rId5"/>
-    <sheet name="19 〜KOKORO &amp; KARADA〜A" sheetId="2" r:id="rId6"/>
-    <sheet name="19 〜KOKORO &amp; KARADA〜B" sheetId="7" r:id="rId7"/>
-    <sheet name="19 〜BEST WISHES！〜A" sheetId="8" r:id="rId8"/>
-    <sheet name="19 〜BEST WISHES！〜B" sheetId="9" r:id="rId9"/>
+    <sheet name="22 加賀楓卒業コンサート" sheetId="11" r:id="rId1"/>
+    <sheet name="22 ～SINGIN' TO THE BEAT～" sheetId="10" r:id="rId2"/>
+    <sheet name="22 〜Never Been Better! Encore〜" sheetId="4" r:id="rId3"/>
+    <sheet name="22 森戸知沙希卒業コンサート" sheetId="5" r:id="rId4"/>
+    <sheet name="22 〜Never Been Better!〜" sheetId="1" r:id="rId5"/>
+    <sheet name="21 佐藤優樹卒業コンサート" sheetId="6" r:id="rId6"/>
+    <sheet name="19 〜KOKORO &amp; KARADA〜A" sheetId="2" r:id="rId7"/>
+    <sheet name="19 〜KOKORO &amp; KARADA〜B" sheetId="7" r:id="rId8"/>
+    <sheet name="19 〜BEST WISHES！〜A" sheetId="8" r:id="rId9"/>
+    <sheet name="19 〜BEST WISHES！〜B" sheetId="9" r:id="rId10"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="801" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="907" uniqueCount="188">
   <si>
     <t>項番</t>
   </si>
@@ -1047,6 +1048,127 @@
     <t>歩いてる</t>
     <rPh sb="0" eb="1">
       <t>アルイテ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>そうだ！We're ALIVE(updated)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>恋愛レボリューション２１(updated)</t>
+    <rPh sb="0" eb="1">
+      <t>レn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VTR</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>恋愛Destiny〜本音を論じたい〜</t>
+    <rPh sb="0" eb="2">
+      <t>レn</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>〜</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ホn</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ヲ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ロn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>KOKORO &amp; KARADA</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Happy birthday to Me！</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>小田さくら　横山玲奈</t>
+    <rPh sb="0" eb="2">
+      <t>オダサ</t>
+    </rPh>
+    <rPh sb="6" eb="10">
+      <t>ヨコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>譜久村聖　生田衣梨奈　野中美希　山﨑愛生　櫻井梨央</t>
+    <rPh sb="0" eb="4">
+      <t>フクムラ</t>
+    </rPh>
+    <rPh sb="5" eb="10">
+      <t>イクタ</t>
+    </rPh>
+    <rPh sb="11" eb="15">
+      <t>ノナカ</t>
+    </rPh>
+    <rPh sb="16" eb="20">
+      <t>ヤマザキ</t>
+    </rPh>
+    <rPh sb="21" eb="25">
+      <t>サクライリオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Swing Swing Paradise</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ジェラシー　ジェラシー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>One・Two・Three(updated)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>人間関係No way way</t>
+    <rPh sb="0" eb="4">
+      <t>ニn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>強気で行こうぜ！</t>
+    <rPh sb="0" eb="2">
+      <t>ツヨキ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>イコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Give me 愛</t>
+    <rPh sb="8" eb="9">
+      <t>IE</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>加賀楓</t>
+    <rPh sb="0" eb="3">
+      <t>カガカエデ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ambitious！野心的でいいじゃん</t>
+    <rPh sb="10" eb="13">
+      <t>ヤシn</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1170,47 +1292,41 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+  <cellXfs count="12">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2372,21 +2488,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{210B0464-FA2F-144E-8697-BD526A8EBFCC}">
-  <dimension ref="A1:D25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0450A2D4-960B-0E47-A143-779D11403040}">
+  <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="53.83203125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="8.83203125" style="5" customWidth="1"/>
-    <col min="4" max="4" width="57.6640625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="5" customWidth="1"/>
-    <col min="6" max="16384" width="12.6640625" style="5"/>
+    <col min="1" max="1" width="8.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="53.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.83203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="57.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="12.6640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2407,8 +2523,8 @@
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>149</v>
+      <c r="B2" s="4" t="s">
+        <v>172</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>5</v>
@@ -2421,8 +2537,8 @@
       <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>150</v>
+      <c r="B3" s="4" t="s">
+        <v>173</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>5</v>
@@ -2435,22 +2551,22 @@
       <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>6</v>
+      <c r="B4" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>152</v>
+      <c r="B5" s="4" t="s">
+        <v>151</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>5</v>
@@ -2463,8 +2579,8 @@
       <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>61</v>
+      <c r="B6" s="4" t="s">
+        <v>152</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>5</v>
@@ -2477,11 +2593,11 @@
       <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>71</v>
+      <c r="B7" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>6</v>
@@ -2491,10 +2607,10 @@
       <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="C8" s="6" t="s">
+      <c r="B8" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>71</v>
       </c>
       <c r="D8" s="2" t="s">
@@ -2505,55 +2621,55 @@
       <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="C9" s="6" t="s">
+      <c r="B9" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="D9" s="6" t="s">
-        <v>69</v>
+      <c r="D9" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="C10" s="6" t="s">
+      <c r="B10" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="D10" s="6" t="s">
-        <v>69</v>
+      <c r="D10" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="C11" s="6" t="s">
+      <c r="B11" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="D11" s="6" t="s">
-        <v>133</v>
+      <c r="D11" s="4" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
         <v>11</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="C12" s="6" t="s">
+      <c r="B12" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="4" t="s">
         <v>69</v>
       </c>
     </row>
@@ -2561,109 +2677,109 @@
       <c r="A13" s="3">
         <v>12</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>158</v>
+      <c r="B13" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
         <v>13</v>
       </c>
-      <c r="B14" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>160</v>
+      <c r="B14" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="3">
         <v>14</v>
       </c>
-      <c r="B15" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>162</v>
+      <c r="B15" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="3">
         <v>15</v>
       </c>
-      <c r="B16" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="C16" s="6" t="s">
+      <c r="B16" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="D16" s="6" t="s">
-        <v>164</v>
+      <c r="D16" s="4" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="3">
         <v>16</v>
       </c>
-      <c r="B17" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="C17" s="6" t="s">
+      <c r="B17" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="D17" s="6" t="s">
-        <v>166</v>
+      <c r="D17" s="4" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="3">
         <v>17</v>
       </c>
-      <c r="B18" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="C18" s="6" t="s">
+      <c r="B18" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="D18" s="2" t="s">
-        <v>6</v>
+      <c r="D18" s="4" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="3">
         <v>18</v>
       </c>
-      <c r="B19" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="C19" s="6" t="s">
+      <c r="B19" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="D19" s="2" t="s">
-        <v>6</v>
+      <c r="D19" s="4" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="3">
         <v>19</v>
       </c>
-      <c r="B20" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>5</v>
+      <c r="B20" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>84</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>6</v>
@@ -2673,22 +2789,22 @@
       <c r="A21" s="3">
         <v>20</v>
       </c>
-      <c r="B21" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>6</v>
+      <c r="B21" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="3">
         <v>21</v>
       </c>
-      <c r="B22" s="6" t="s">
-        <v>169</v>
+      <c r="B22" s="4" t="s">
+        <v>181</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>5</v>
@@ -2697,12 +2813,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="3">
         <v>22</v>
       </c>
-      <c r="B23" s="6" t="s">
-        <v>74</v>
+      <c r="B23" s="4" t="s">
+        <v>182</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>5</v>
@@ -2711,31 +2827,661 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="3">
         <v>23</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="5">
+        <v>24</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="7">
+        <v>25</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="7">
+        <v>26</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="7">
+        <v>27</v>
+      </c>
+      <c r="B28" s="8" t="s">
         <v>170</v>
       </c>
+      <c r="C28" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="7">
+        <v>28</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="7">
+        <v>29</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="7">
+        <v>30</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="7">
+        <v>31</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="7">
+        <v>32</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="7">
+        <v>33</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="7">
+        <v>34</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup orientation="portrait"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"MS PGothic,Regular"&amp;11&amp;K000000000000&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38267819-950F-7B4C-9F75-D8722B96C32A}">
+  <dimension ref="A1:D33"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="8.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="53.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.83203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="49.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="12.6640625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="3">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="3">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="3">
+        <v>13</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="3">
+        <v>14</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="3">
+        <v>15</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="3">
+        <v>16</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="3">
+        <v>17</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="3">
+        <v>18</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="3">
+        <v>19</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="3">
+        <v>20</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="3">
+        <v>21</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="3">
+        <v>22</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="3">
+        <v>23</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>139</v>
+      </c>
       <c r="C24" s="2" t="s">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="3">
         <v>24</v>
       </c>
-      <c r="B25" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D25" s="2" t="s">
+      <c r="B25" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="3">
+        <v>25</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="3">
+        <v>26</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="3">
+        <v>27</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="3">
+        <v>28</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="3">
+        <v>29</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="3">
+        <v>30</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="3">
+        <v>31</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="3">
+        <v>32</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="D33" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2750,21 +3496,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB14DD7E-9C74-1B49-821D-40299A02F74E}">
-  <dimension ref="A1:D22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{210B0464-FA2F-144E-8697-BD526A8EBFCC}">
+  <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="53.83203125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="8.83203125" style="5" customWidth="1"/>
-    <col min="4" max="4" width="57.6640625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="5" customWidth="1"/>
-    <col min="6" max="16384" width="12.6640625" style="5"/>
+    <col min="1" max="1" width="8.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="53.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.83203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="57.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="12.6640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2785,8 +3531,8 @@
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>57</v>
+      <c r="B2" s="4" t="s">
+        <v>149</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>5</v>
@@ -2799,8 +3545,8 @@
       <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>58</v>
+      <c r="B3" s="4" t="s">
+        <v>150</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>5</v>
@@ -2813,8 +3559,8 @@
       <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>8</v>
+      <c r="B4" s="4" t="s">
+        <v>151</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>5</v>
@@ -2827,8 +3573,8 @@
       <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>59</v>
+      <c r="B5" s="4" t="s">
+        <v>152</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>5</v>
@@ -2841,8 +3587,8 @@
       <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>10</v>
+      <c r="B6" s="4" t="s">
+        <v>61</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>5</v>
@@ -2855,11 +3601,11 @@
       <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>5</v>
+      <c r="B7" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>71</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>6</v>
@@ -2869,11 +3615,11 @@
       <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>5</v>
+      <c r="B8" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>71</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>6</v>
@@ -2883,55 +3629,55 @@
       <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>63</v>
+      <c r="B9" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>65</v>
+      <c r="B10" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>67</v>
+      <c r="B11" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
         <v>11</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" s="6" t="s">
+      <c r="B12" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>69</v>
       </c>
     </row>
@@ -2939,81 +3685,81 @@
       <c r="A13" s="3">
         <v>12</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>6</v>
+      <c r="B13" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
         <v>13</v>
       </c>
-      <c r="B14" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>6</v>
+      <c r="B14" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="3">
         <v>14</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>6</v>
+      <c r="B15" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="3">
         <v>15</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>6</v>
+      <c r="B16" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="3">
         <v>16</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>6</v>
+      <c r="B17" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="3">
         <v>17</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>71</v>
+      <c r="B18" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>84</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>6</v>
@@ -3023,11 +3769,11 @@
       <c r="A19" s="3">
         <v>18</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>71</v>
+      <c r="B19" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>84</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>6</v>
@@ -3037,8 +3783,8 @@
       <c r="A20" s="3">
         <v>19</v>
       </c>
-      <c r="B20" s="6" t="s">
-        <v>73</v>
+      <c r="B20" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>5</v>
@@ -3051,8 +3797,8 @@
       <c r="A21" s="3">
         <v>20</v>
       </c>
-      <c r="B21" s="6" t="s">
-        <v>74</v>
+      <c r="B21" s="4" t="s">
+        <v>168</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>5</v>
@@ -3065,13 +3811,55 @@
       <c r="A22" s="3">
         <v>21</v>
       </c>
-      <c r="B22" s="6" t="s">
-        <v>75</v>
+      <c r="B22" s="4" t="s">
+        <v>169</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D22" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="3">
+        <v>22</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="3">
+        <v>23</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="3">
+        <v>24</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3086,21 +3874,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D4FF176-C444-A54C-ABC5-2618322167C6}">
-  <dimension ref="A1:D28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB14DD7E-9C74-1B49-821D-40299A02F74E}">
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="53.83203125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="8.83203125" style="5" customWidth="1"/>
-    <col min="4" max="4" width="57.6640625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="5" customWidth="1"/>
-    <col min="6" max="16384" width="12.6640625" style="5"/>
+    <col min="1" max="1" width="8.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="53.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.83203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="57.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="12.6640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3121,8 +3909,8 @@
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>80</v>
+      <c r="B2" s="4" t="s">
+        <v>57</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>5</v>
@@ -3135,8 +3923,8 @@
       <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>7</v>
+      <c r="B3" s="4" t="s">
+        <v>58</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>5</v>
@@ -3163,7 +3951,7 @@
       <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="4" t="s">
         <v>59</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -3178,7 +3966,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>5</v>
@@ -3191,8 +3979,8 @@
       <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>10</v>
+      <c r="B7" s="4" t="s">
+        <v>60</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>5</v>
@@ -3205,8 +3993,8 @@
       <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>81</v>
+      <c r="B8" s="4" t="s">
+        <v>61</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>5</v>
@@ -3219,81 +4007,81 @@
       <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>11</v>
+      <c r="B9" s="4" t="s">
+        <v>62</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>6</v>
+      <c r="D9" s="4" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>12</v>
+      <c r="B10" s="4" t="s">
+        <v>64</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>6</v>
+      <c r="D10" s="4" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>14</v>
+      <c r="B11" s="4" t="s">
+        <v>66</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="6" t="s">
-        <v>76</v>
+      <c r="D11" s="4" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
         <v>11</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>15</v>
+      <c r="B12" s="4" t="s">
+        <v>68</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="6" t="s">
-        <v>77</v>
+      <c r="D12" s="4" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="3">
         <v>12</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>78</v>
+      <c r="B13" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
         <v>13</v>
       </c>
-      <c r="B14" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>5</v>
+      <c r="B14" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>71</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>6</v>
@@ -3304,9 +4092,9 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>71</v>
       </c>
       <c r="D15" s="2" t="s">
@@ -3318,9 +4106,9 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>71</v>
       </c>
       <c r="D16" s="2" t="s">
@@ -3332,9 +4120,9 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>71</v>
       </c>
       <c r="D17" s="2" t="s">
@@ -3346,9 +4134,9 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>71</v>
       </c>
       <c r="D18" s="2" t="s">
@@ -3360,9 +4148,9 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>71</v>
       </c>
       <c r="D19" s="2" t="s">
@@ -3373,11 +4161,11 @@
       <c r="A20" s="3">
         <v>19</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>71</v>
+      <c r="B20" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>6</v>
@@ -3387,11 +4175,11 @@
       <c r="A21" s="3">
         <v>20</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>71</v>
+      <c r="B21" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>6</v>
@@ -3401,98 +4189,14 @@
       <c r="A22" s="3">
         <v>21</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>24</v>
+      <c r="B22" s="4" t="s">
+        <v>75</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="3">
-        <v>22</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="3">
-        <v>23</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="7">
-        <v>24</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="9">
-        <v>25</v>
-      </c>
-      <c r="B26" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="D26" s="10" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="9">
-        <v>26</v>
-      </c>
-      <c r="B27" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="C27" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="D27" s="10" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="9">
-        <v>27</v>
-      </c>
-      <c r="B28" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="D28" s="10" t="s">
-        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -3506,6 +4210,426 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D4FF176-C444-A54C-ABC5-2618322167C6}">
+  <dimension ref="A1:D28"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="8.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="53.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.83203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="57.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="12.6640625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="3">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="3">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="3">
+        <v>13</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="3">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="3">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="3">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="3">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="3">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="3">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="3">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="3">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="3">
+        <v>22</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="3">
+        <v>23</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="5">
+        <v>24</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="7">
+        <v>25</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="7">
+        <v>26</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="7">
+        <v>27</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup orientation="portrait"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"MS PGothic,Regular"&amp;11&amp;K000000000000&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D23"/>
   <sheetViews>
@@ -3659,7 +4783,7 @@
       <c r="C10" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="4" t="s">
         <v>76</v>
       </c>
     </row>
@@ -3673,7 +4797,7 @@
       <c r="C11" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="4" t="s">
         <v>77</v>
       </c>
     </row>
@@ -3687,7 +4811,7 @@
       <c r="C12" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="4" t="s">
         <v>78</v>
       </c>
     </row>
@@ -3695,7 +4819,7 @@
       <c r="A13" s="3">
         <v>12</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="4" t="s">
         <v>79</v>
       </c>
       <c r="C13" s="2" t="s">
@@ -3712,7 +4836,7 @@
       <c r="B14" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="4" t="s">
         <v>71</v>
       </c>
       <c r="D14" s="2" t="s">
@@ -3726,7 +4850,7 @@
       <c r="B15" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="4" t="s">
         <v>71</v>
       </c>
       <c r="D15" s="2" t="s">
@@ -3740,7 +4864,7 @@
       <c r="B16" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="4" t="s">
         <v>71</v>
       </c>
       <c r="D16" s="2" t="s">
@@ -3754,7 +4878,7 @@
       <c r="B17" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="4" t="s">
         <v>71</v>
       </c>
       <c r="D17" s="2" t="s">
@@ -3768,7 +4892,7 @@
       <c r="B18" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="4" t="s">
         <v>71</v>
       </c>
       <c r="D18" s="2" t="s">
@@ -3782,7 +4906,7 @@
       <c r="B19" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="4" t="s">
         <v>71</v>
       </c>
       <c r="D19" s="2" t="s">
@@ -3796,7 +4920,7 @@
       <c r="B20" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="4" t="s">
         <v>71</v>
       </c>
       <c r="D20" s="2" t="s">
@@ -3843,510 +4967,6 @@
       </c>
       <c r="D23" s="2" t="s">
         <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="portrait"/>
-  <headerFooter>
-    <oddFooter>&amp;C&amp;"MS PGothic,Regular"&amp;11&amp;K000000000000&amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F6E2332-27BF-3D41-B643-53EFBA36AF7B}">
-  <dimension ref="A1:D34"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="8.83203125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="53.83203125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="8.83203125" style="5" customWidth="1"/>
-    <col min="4" max="4" width="57.6640625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="5" customWidth="1"/>
-    <col min="6" max="16384" width="12.6640625" style="5"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="3">
-        <v>3</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="3">
-        <v>4</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="3">
-        <v>5</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="3">
-        <v>6</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="3">
-        <v>7</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="3">
-        <v>8</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="3">
-        <v>9</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="3">
-        <v>10</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="3">
-        <v>11</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="3">
-        <v>12</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="3">
-        <v>13</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="3">
-        <v>14</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="3">
-        <v>15</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="3">
-        <v>16</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="3">
-        <v>17</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="3">
-        <v>18</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="3">
-        <v>19</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="3">
-        <v>20</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="3">
-        <v>21</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="3">
-        <v>22</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="3">
-        <v>23</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="7">
-        <v>24</v>
-      </c>
-      <c r="B25" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="C25" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="9">
-        <v>25</v>
-      </c>
-      <c r="B26" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="D26" s="10" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="7">
-        <v>26</v>
-      </c>
-      <c r="B27" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="C27" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="D27" s="10" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="9">
-        <v>27</v>
-      </c>
-      <c r="B28" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="D28" s="10" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="12">
-        <v>28</v>
-      </c>
-      <c r="B29" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="C29" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="D29" s="10" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="13">
-        <v>29</v>
-      </c>
-      <c r="B30" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="D30" s="10" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="12">
-        <v>30</v>
-      </c>
-      <c r="B31" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="C31" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="D31" s="10" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="13">
-        <v>31</v>
-      </c>
-      <c r="B32" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="C32" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="D32" s="10" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="12">
-        <v>32</v>
-      </c>
-      <c r="B33" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="C33" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="D33" s="10" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="13">
-        <v>33</v>
-      </c>
-      <c r="B34" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="C34" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="D34" s="10" t="s">
-        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -4360,21 +4980,21 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F6E2332-27BF-3D41-B643-53EFBA36AF7B}">
+  <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="53.83203125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="8.83203125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="49.5" style="4" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="4" customWidth="1"/>
-    <col min="6" max="16384" width="12.6640625" style="4"/>
+    <col min="1" max="1" width="8.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="53.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.83203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="57.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="12.6640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4395,8 +5015,8 @@
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>27</v>
+      <c r="B2" s="4" t="s">
+        <v>90</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>5</v>
@@ -4409,22 +5029,22 @@
       <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>6</v>
+      <c r="B3" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>29</v>
+      <c r="B4" s="4" t="s">
+        <v>92</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>5</v>
@@ -4437,8 +5057,8 @@
       <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>30</v>
+      <c r="B5" s="4" t="s">
+        <v>93</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>5</v>
@@ -4451,8 +5071,8 @@
       <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>31</v>
+      <c r="B6" s="4" t="s">
+        <v>94</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>5</v>
@@ -4465,22 +5085,22 @@
       <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>32</v>
+      <c r="B7" s="4" t="s">
+        <v>95</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>18</v>
+      <c r="B8" s="4" t="s">
+        <v>96</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>5</v>
@@ -4493,8 +5113,8 @@
       <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>33</v>
+      <c r="B9" s="4" t="s">
+        <v>97</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>5</v>
@@ -4507,165 +5127,165 @@
       <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>6</v>
+      <c r="B10" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>22</v>
+      <c r="B11" s="4" t="s">
+        <v>98</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>6</v>
+      <c r="D11" s="4" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
         <v>11</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>32</v>
+      <c r="B12" s="4" t="s">
+        <v>68</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>32</v>
+      <c r="D12" s="4" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="3">
         <v>12</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>35</v>
+      <c r="B13" s="4" t="s">
+        <v>99</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>36</v>
+      <c r="D13" s="4" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
         <v>13</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>37</v>
+      <c r="B14" s="4" t="s">
+        <v>100</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>38</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="3">
         <v>14</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>40</v>
+      <c r="B15" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="3">
         <v>15</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>42</v>
+      <c r="B16" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="3">
         <v>16</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>6</v>
+      <c r="B17" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="3">
         <v>17</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>6</v>
+      <c r="B18" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="3">
         <v>18</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>32</v>
+      <c r="B19" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>84</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="3">
         <v>19</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>6</v>
+      <c r="B20" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="3">
         <v>20</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>46</v>
+      <c r="B21" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>71</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>6</v>
@@ -4675,11 +5295,11 @@
       <c r="A22" s="3">
         <v>21</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>46</v>
+      <c r="B22" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>71</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>6</v>
@@ -4689,11 +5309,11 @@
       <c r="A23" s="3">
         <v>22</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>46</v>
+      <c r="B23" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>71</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>6</v>
@@ -4703,140 +5323,154 @@
       <c r="A24" s="3">
         <v>23</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>6</v>
+      <c r="B24" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="3">
+      <c r="A25" s="5">
         <v>24</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="3">
+      <c r="B25" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="7">
         <v>25</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="5">
+        <v>26</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="7">
+        <v>27</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="10">
+        <v>28</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="11">
+        <v>29</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="10">
+        <v>30</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="11">
+        <v>31</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="10">
         <v>32</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="3">
-        <v>26</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="3">
-        <v>27</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="3">
-        <v>28</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="3">
-        <v>29</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="3">
-        <v>30</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="3">
-        <v>31</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="3">
-        <v>32</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>6</v>
+      <c r="B33" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="11">
+        <v>33</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -4850,21 +5484,21 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27C9720E-4F1D-B649-A6BC-EC4271C7DABD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="53.83203125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="8.83203125" style="5" customWidth="1"/>
-    <col min="4" max="4" width="49.5" style="5" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="5" customWidth="1"/>
-    <col min="6" max="16384" width="12.6640625" style="5"/>
+    <col min="1" max="1" width="8.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="53.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.83203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="49.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="12.6640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4969,8 +5603,8 @@
       <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>113</v>
+      <c r="B8" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>5</v>
@@ -4983,8 +5617,8 @@
       <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>114</v>
+      <c r="B9" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>5</v>
@@ -4997,8 +5631,8 @@
       <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>115</v>
+      <c r="B10" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>5</v>
@@ -5011,8 +5645,8 @@
       <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>116</v>
+      <c r="B11" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>5</v>
@@ -5039,8 +5673,8 @@
       <c r="A13" s="3">
         <v>12</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>117</v>
+      <c r="B13" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>5</v>
@@ -5053,28 +5687,28 @@
       <c r="A14" s="3">
         <v>13</v>
       </c>
-      <c r="B14" s="6" t="s">
-        <v>118</v>
+      <c r="B14" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="3">
         <v>14</v>
       </c>
-      <c r="B15" s="6" t="s">
-        <v>119</v>
+      <c r="B15" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D15" s="6" t="s">
-        <v>120</v>
+      <c r="D15" s="2" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -5109,8 +5743,8 @@
       <c r="A18" s="3">
         <v>17</v>
       </c>
-      <c r="B18" s="6" t="s">
-        <v>121</v>
+      <c r="B18" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>5</v>
@@ -5340,21 +5974,21 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C371703F-4453-8644-AA85-C1C6D0A5AD13}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27C9720E-4F1D-B649-A6BC-EC4271C7DABD}">
   <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="53.83203125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="8.83203125" style="5" customWidth="1"/>
-    <col min="4" max="4" width="49.5" style="5" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="5" customWidth="1"/>
-    <col min="6" max="16384" width="12.6640625" style="5"/>
+    <col min="1" max="1" width="8.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="53.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.83203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="49.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="12.6640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -5375,8 +6009,8 @@
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>110</v>
+      <c r="B2" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>5</v>
@@ -5389,8 +6023,8 @@
       <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>122</v>
+      <c r="B3" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>5</v>
@@ -5403,22 +6037,22 @@
       <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>91</v>
+      <c r="B4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>123</v>
+      <c r="B5" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>5</v>
@@ -5431,8 +6065,8 @@
       <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>124</v>
+      <c r="B6" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>5</v>
@@ -5445,36 +6079,36 @@
       <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>125</v>
+      <c r="B7" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>126</v>
+      <c r="B8" s="4" t="s">
+        <v>113</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>127</v>
+      <c r="B9" s="4" t="s">
+        <v>114</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>5</v>
@@ -5487,22 +6121,22 @@
       <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>91</v>
+      <c r="B10" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>128</v>
+      <c r="B11" s="4" t="s">
+        <v>116</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>5</v>
@@ -5515,123 +6149,123 @@
       <c r="A12" s="3">
         <v>11</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>129</v>
+      <c r="B12" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="3">
         <v>12</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>104</v>
+      <c r="B13" s="4" t="s">
+        <v>117</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
         <v>13</v>
       </c>
-      <c r="B14" s="6" t="s">
-        <v>85</v>
+      <c r="B14" s="4" t="s">
+        <v>118</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="3">
         <v>14</v>
       </c>
-      <c r="B15" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>91</v>
+      <c r="B15" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="3">
         <v>15</v>
       </c>
-      <c r="B16" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>69</v>
+      <c r="B16" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="3">
         <v>16</v>
       </c>
-      <c r="B17" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>133</v>
+      <c r="B17" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="3">
         <v>17</v>
       </c>
-      <c r="B18" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>133</v>
+      <c r="B18" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="3">
         <v>18</v>
       </c>
-      <c r="B19" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>133</v>
+      <c r="B19" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="3">
         <v>19</v>
       </c>
-      <c r="B20" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>71</v>
+      <c r="B20" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>6</v>
@@ -5641,11 +6275,11 @@
       <c r="A21" s="3">
         <v>20</v>
       </c>
-      <c r="B21" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>71</v>
+      <c r="B21" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>6</v>
@@ -5655,22 +6289,22 @@
       <c r="A22" s="3">
         <v>21</v>
       </c>
-      <c r="B22" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>133</v>
+      <c r="B22" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="3">
         <v>22</v>
       </c>
-      <c r="B23" s="6" t="s">
-        <v>138</v>
+      <c r="B23" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>46</v>
@@ -5683,8 +6317,8 @@
       <c r="A24" s="3">
         <v>23</v>
       </c>
-      <c r="B24" s="6" t="s">
-        <v>139</v>
+      <c r="B24" s="2" t="s">
+        <v>50</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>46</v>
@@ -5697,39 +6331,39 @@
       <c r="A25" s="3">
         <v>24</v>
       </c>
-      <c r="B25" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>91</v>
+      <c r="B25" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="3">
         <v>25</v>
       </c>
-      <c r="B26" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>84</v>
+      <c r="B26" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="3">
         <v>26</v>
       </c>
-      <c r="B27" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>84</v>
+      <c r="B27" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>6</v>
@@ -5739,11 +6373,11 @@
       <c r="A28" s="3">
         <v>27</v>
       </c>
-      <c r="B28" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>84</v>
+      <c r="B28" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>6</v>
@@ -5753,25 +6387,25 @@
       <c r="A29" s="3">
         <v>28</v>
       </c>
-      <c r="B29" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>133</v>
+      <c r="B29" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="3">
         <v>29</v>
       </c>
-      <c r="B30" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>142</v>
+      <c r="B30" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>6</v>
@@ -5781,11 +6415,11 @@
       <c r="A31" s="3">
         <v>30</v>
       </c>
-      <c r="B31" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>142</v>
+      <c r="B31" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>6</v>
@@ -5795,25 +6429,25 @@
       <c r="A32" s="3">
         <v>31</v>
       </c>
-      <c r="B32" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>91</v>
+      <c r="B32" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="3">
         <v>32</v>
       </c>
-      <c r="B33" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>142</v>
+      <c r="B33" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>6</v>
@@ -5830,21 +6464,21 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38267819-950F-7B4C-9F75-D8722B96C32A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C371703F-4453-8644-AA85-C1C6D0A5AD13}">
   <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="53.83203125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="8.83203125" style="5" customWidth="1"/>
-    <col min="4" max="4" width="49.5" style="5" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="5" customWidth="1"/>
-    <col min="6" max="16384" width="12.6640625" style="5"/>
+    <col min="1" max="1" width="8.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="53.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.83203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="49.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="12.6640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -5865,7 +6499,7 @@
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="4" t="s">
         <v>110</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -5879,7 +6513,7 @@
       <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="4" t="s">
         <v>122</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -5893,13 +6527,13 @@
       <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="4" t="s">
         <v>91</v>
       </c>
     </row>
@@ -5907,7 +6541,7 @@
       <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="4" t="s">
         <v>123</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -5921,7 +6555,7 @@
       <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="4" t="s">
         <v>124</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -5935,7 +6569,7 @@
       <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="4" t="s">
         <v>125</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -5949,7 +6583,7 @@
       <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="4" t="s">
         <v>126</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -5963,7 +6597,7 @@
       <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="4" t="s">
         <v>127</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -5977,13 +6611,13 @@
       <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="4" t="s">
         <v>91</v>
       </c>
     </row>
@@ -5991,8 +6625,8 @@
       <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>111</v>
+      <c r="B11" s="4" t="s">
+        <v>128</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>5</v>
@@ -6005,8 +6639,8 @@
       <c r="A12" s="3">
         <v>11</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>144</v>
+      <c r="B12" s="4" t="s">
+        <v>129</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>5</v>
@@ -6019,8 +6653,8 @@
       <c r="A13" s="3">
         <v>12</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>145</v>
+      <c r="B13" s="4" t="s">
+        <v>104</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>5</v>
@@ -6033,8 +6667,8 @@
       <c r="A14" s="3">
         <v>13</v>
       </c>
-      <c r="B14" s="6" t="s">
-        <v>146</v>
+      <c r="B14" s="4" t="s">
+        <v>85</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>5</v>
@@ -6047,13 +6681,13 @@
       <c r="A15" s="3">
         <v>14</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="4" t="s">
         <v>91</v>
       </c>
     </row>
@@ -6061,13 +6695,13 @@
       <c r="A16" s="3">
         <v>15</v>
       </c>
-      <c r="B16" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="C16" s="6" t="s">
+      <c r="B16" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="4" t="s">
         <v>69</v>
       </c>
     </row>
@@ -6075,13 +6709,13 @@
       <c r="A17" s="3">
         <v>16</v>
       </c>
-      <c r="B17" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="C17" s="6" t="s">
+      <c r="B17" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="4" t="s">
         <v>133</v>
       </c>
     </row>
@@ -6089,13 +6723,13 @@
       <c r="A18" s="3">
         <v>17</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D18" s="4" t="s">
         <v>133</v>
       </c>
     </row>
@@ -6103,13 +6737,13 @@
       <c r="A19" s="3">
         <v>18</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="D19" s="4" t="s">
         <v>133</v>
       </c>
     </row>
@@ -6117,10 +6751,10 @@
       <c r="A20" s="3">
         <v>19</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="4" t="s">
         <v>71</v>
       </c>
       <c r="D20" s="2" t="s">
@@ -6131,10 +6765,10 @@
       <c r="A21" s="3">
         <v>20</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="4" t="s">
         <v>71</v>
       </c>
       <c r="D21" s="2" t="s">
@@ -6145,13 +6779,13 @@
       <c r="A22" s="3">
         <v>21</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="D22" s="4" t="s">
         <v>133</v>
       </c>
     </row>
@@ -6159,7 +6793,7 @@
       <c r="A23" s="3">
         <v>22</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="4" t="s">
         <v>138</v>
       </c>
       <c r="C23" s="2" t="s">
@@ -6173,7 +6807,7 @@
       <c r="A24" s="3">
         <v>23</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="4" t="s">
         <v>139</v>
       </c>
       <c r="C24" s="2" t="s">
@@ -6187,13 +6821,13 @@
       <c r="A25" s="3">
         <v>24</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="D25" s="6" t="s">
+      <c r="D25" s="4" t="s">
         <v>91</v>
       </c>
     </row>
@@ -6201,10 +6835,10 @@
       <c r="A26" s="3">
         <v>25</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="4" t="s">
         <v>84</v>
       </c>
       <c r="D26" s="2" t="s">
@@ -6215,10 +6849,10 @@
       <c r="A27" s="3">
         <v>26</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="C27" s="4" t="s">
         <v>84</v>
       </c>
       <c r="D27" s="2" t="s">
@@ -6229,10 +6863,10 @@
       <c r="A28" s="3">
         <v>27</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="C28" s="4" t="s">
         <v>84</v>
       </c>
       <c r="D28" s="2" t="s">
@@ -6243,13 +6877,13 @@
       <c r="A29" s="3">
         <v>28</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B29" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="C29" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="D29" s="6" t="s">
+      <c r="D29" s="4" t="s">
         <v>133</v>
       </c>
     </row>
@@ -6257,10 +6891,10 @@
       <c r="A30" s="3">
         <v>29</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="B30" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="C30" s="4" t="s">
         <v>142</v>
       </c>
       <c r="D30" s="2" t="s">
@@ -6271,10 +6905,10 @@
       <c r="A31" s="3">
         <v>30</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="B31" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="C31" s="4" t="s">
         <v>142</v>
       </c>
       <c r="D31" s="2" t="s">
@@ -6285,13 +6919,13 @@
       <c r="A32" s="3">
         <v>31</v>
       </c>
-      <c r="B32" s="6" t="s">
+      <c r="B32" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="C32" s="6" t="s">
+      <c r="C32" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="D32" s="6" t="s">
+      <c r="D32" s="4" t="s">
         <v>91</v>
       </c>
     </row>
@@ -6299,10 +6933,10 @@
       <c r="A33" s="3">
         <v>32</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="B33" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="C33" s="6" t="s">
+      <c r="C33" s="4" t="s">
         <v>142</v>
       </c>
       <c r="D33" s="2" t="s">
